--- a/ProjectDocs/Metrices/Metrices - Unit Test Cases.xlsx
+++ b/ProjectDocs/Metrices/Metrices - Unit Test Cases.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>Module</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>Cycle2 Defect Ratio</t>
+  </si>
+  <si>
+    <t>Android App(Basic) module</t>
+  </si>
+  <si>
+    <t>Android Notification Display Module</t>
   </si>
 </sst>
 </file>
@@ -125,12 +131,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,16 +434,16 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -645,72 +651,118 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>8</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>5</v>
       </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11">
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="1">
-        <f>SUM(B3:B11)</f>
-        <v>58</v>
-      </c>
-      <c r="C12" s="1">
-        <f t="shared" ref="C12:G12" si="0">SUM(C3:C11)</f>
-        <v>42</v>
-      </c>
-      <c r="D12" s="1">
-        <f t="shared" si="0"/>
+      <c r="B14" s="1">
+        <f>SUM(B3:B13)</f>
+        <v>66</v>
+      </c>
+      <c r="C14" s="1">
+        <f>SUM(C3:C13)</f>
+        <v>48</v>
+      </c>
+      <c r="D14" s="1">
+        <f>SUM(D3:D13)</f>
+        <v>18</v>
+      </c>
+      <c r="E14" s="1">
+        <f>SUM(E3:E13)</f>
+        <v>18</v>
+      </c>
+      <c r="F14" s="1">
+        <f>SUM(F3:F13)</f>
         <v>16</v>
       </c>
-      <c r="E12" s="1">
-        <f t="shared" si="0"/>
+      <c r="G14" s="1">
+        <f>SUM(G3:G13)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="G12" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="4">
-        <f>D12/B12</f>
-        <v>0.27586206896551724</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="C16" s="3">
+        <f>D14/B14</f>
+        <v>0.27272727272727271</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="4">
-        <f>G12/E12</f>
-        <v>0.125</v>
+      <c r="C17" s="3">
+        <f>G14/E14</f>
+        <v>0.1111111111111111</v>
       </c>
     </row>
   </sheetData>
